--- a/C0LLER_0330/C0LLER1fel.xlsx
+++ b/C0LLER_0330/C0LLER1fel.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.IIT.000\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,9 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -466,18 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,9 +482,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
       <c r="BV5" s="10"/>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="C7:E7" si="0">D5-D2</f>
+        <f t="shared" ref="D7:E7" si="0">D5-D2</f>
         <v>47</v>
       </c>
       <c r="E7" s="5">
@@ -2074,7 +2074,7 @@
       <c r="BV13" s="12"/>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="5">
@@ -2674,7 +2674,7 @@
       <c r="BV21" s="12"/>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -2711,171 +2711,180 @@
     </row>
     <row r="25" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="19">
+        <f>(SUM(B3:E3)/(MAX(B5:E5)+0.4))*100</f>
+        <v>99.415204678362571</v>
+      </c>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="22">
+      <c r="B28" s="15"/>
+      <c r="C28" s="26">
         <f>AVERAGE(B7:E7)</f>
         <v>31</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="20">
+      <c r="B29" s="15"/>
+      <c r="C29" s="28">
         <f>AVERAGE(B$6:E$6)</f>
         <v>14</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="28">
+      <c r="B30" s="16"/>
+      <c r="C30" s="23">
         <f>AVERAGE(B$6:E$6)</f>
         <v>14</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="19">
+        <f>(SUM(B11:E11)/(MAX(B13:E13)+0.4))*100</f>
+        <v>99.415204678362571</v>
+      </c>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="22">
+      <c r="B34" s="15"/>
+      <c r="C34" s="26">
         <f>AVERAGE(B15:E15)</f>
         <v>24.5</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="20">
+      <c r="B35" s="15"/>
+      <c r="C35" s="28">
         <f>AVERAGE(B$14:E$14)</f>
         <v>7.5</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="28">
+      <c r="B36" s="16"/>
+      <c r="C36" s="23">
         <f>AVERAGE(B$14:E$14)</f>
         <v>7.5</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="19">
+        <f>(SUM(B19:E19)/(68+0.6))*100</f>
+        <v>99.125364431486886</v>
+      </c>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="26">
+      <c r="B40" s="15"/>
+      <c r="C40" s="21">
         <f>AVERAGE(B23:E23)</f>
         <v>28</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="26">
-        <f>AVERAGE(8+CC21+21+EC21)</f>
-        <v>29</v>
-      </c>
-      <c r="D41" s="27"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="21">
+        <f>AVERAGE(8+C22+21+E22)</f>
+        <v>44</v>
+      </c>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="28">
-        <f>AVERAGE(8+CC22+21+EC22)</f>
-        <v>29</v>
-      </c>
-      <c r="D42" s="29"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="23">
+        <f>AVERAGE(8+C22+21+E22)</f>
+        <v>44</v>
+      </c>
+      <c r="D42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
